--- a/model/results/mix4_ggpos_h2pos/v_mix.xlsx
+++ b/model/results/mix4_ggpos_h2pos/v_mix.xlsx
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13874100.95404384</v>
+        <v>13888680.39848828</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27161500.66235825</v>
+        <v>24005800.38458044</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3081358.989795917</v>
+        <v>1368274.267573697</v>
       </c>
     </row>
     <row r="5">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12780367.56462585</v>
+        <v>12780367.56462586</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13874100.95404384</v>
+        <v>13888680.39848828</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>22161500.66235826</v>
+        <v>21505800.38458044</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3081358.989795918</v>
+        <v>1368274.267573696</v>
       </c>
     </row>
     <row r="5">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.561137080192567e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-2.538409807465295e-08</v>
       </c>
     </row>
     <row r="6">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5000000</v>
+        <v>7500000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13874100.95404384</v>
+        <v>13888680.39848829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19661500.66235826</v>
+        <v>21505800.38458043</v>
       </c>
     </row>
     <row r="4">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3081358.989795918</v>
+        <v>1368274.267573696</v>
       </c>
     </row>
     <row r="5">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.561137080192567e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-2.538409807465295e-08</v>
       </c>
     </row>
     <row r="6">
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13874100.95404384</v>
+        <v>13888680.3984883</v>
       </c>
     </row>
     <row r="3">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19661500.66235826</v>
+        <v>21505800.38458043</v>
       </c>
     </row>
     <row r="4">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3081358.989795918</v>
+        <v>1368274.267573696</v>
       </c>
     </row>
     <row r="5">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.561137080192567e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.561137080192567e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13874100.95404384</v>
+        <v>13888680.39848829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19661500.66235824</v>
+        <v>21505800.38458044</v>
       </c>
     </row>
     <row r="4">
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3081358.989795918</v>
+        <v>1368274.267573696</v>
       </c>
     </row>
     <row r="5">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.071020960807801e-08</v>
+        <v>2.561137080192567e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-2.538409807465295e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14338213.26885865</v>
+        <v>13888680.39848828</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14318883.7179138</v>
+        <v>16505800.38458049</v>
       </c>
     </row>
     <row r="4">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925924</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14338213.26885865</v>
+        <v>13888680.39848829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9318883.717912965</v>
+        <v>11505800.38458049</v>
       </c>
     </row>
     <row r="4">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1368274.267574514</v>
+        <v>1368274.267573695</v>
       </c>
     </row>
     <row r="5">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925936</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14338213.26885865</v>
+        <v>13888680.39848827</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4318883.717913845</v>
+        <v>6505800.384580477</v>
       </c>
     </row>
     <row r="4">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925936</v>
+        <v>2.561137080192567e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-2.538409807465295e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14338213.26885865</v>
+        <v>13888680.39848828</v>
       </c>
     </row>
     <row r="3">
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1505800.384580465</v>
       </c>
     </row>
     <row r="4">
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925936</v>
+        <v>2.561137080192567e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.036930051716891e-08</v>
+        <v>2.561137080192567e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1520,7 +1520,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>19318883.71791385</v>
+        <v>20000000</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14338213.26885866</v>
+        <v>13888680.39848828</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925936</v>
+        <v>2.561137080192567e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.561137080192567e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1626,10 +1626,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7500000</v>
+        <v>7499999.999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>19318883.71791382</v>
+        <v>21505800.38458034</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9340137.074074071</v>
+        <v>9307084.296296297</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10632587.49999999</v>
+        <v>10583008.33333333</v>
       </c>
     </row>
     <row r="4">
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18922657.27777774</v>
+        <v>18674761.44444444</v>
       </c>
     </row>
     <row r="5">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14338213.26885865</v>
+        <v>13888680.39848828</v>
       </c>
     </row>
     <row r="3">
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925936</v>
+        <v>2.561137080192567e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.246477631005374e-08</v>
+        <v>2.561137080192567e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7500000</v>
+        <v>7499999.999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>19318883.71791383</v>
+        <v>21505800.38458041</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9340137.074074067</v>
+        <v>9307084.296296297</v>
       </c>
     </row>
     <row r="3">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10632587.49999999</v>
+        <v>10583008.33333333</v>
       </c>
     </row>
     <row r="4">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18922657.27777774</v>
+        <v>18674761.44444444</v>
       </c>
     </row>
     <row r="5">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9340137.074074067</v>
+        <v>9307084.296296297</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10632587.49999999</v>
+        <v>10583008.33333333</v>
       </c>
     </row>
     <row r="4">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18922657.27777774</v>
+        <v>18674761.44444444</v>
       </c>
     </row>
     <row r="5">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6615330.382222218</v>
+        <v>6615330.382222224</v>
       </c>
     </row>
     <row r="4">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12083802.66666667</v>
+        <v>12083802.6666667</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13421333.77037037</v>
+        <v>13214492.26666667</v>
       </c>
     </row>
     <row r="3">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14731021.43333333</v>
+        <v>10289161.95555555</v>
       </c>
     </row>
     <row r="4">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14919758.05555554</v>
+        <v>17500044</v>
       </c>
     </row>
     <row r="5">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13421333.77037037</v>
+        <v>13388280.99259259</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>20685049.21111111</v>
+        <v>16503872.82222222</v>
       </c>
     </row>
     <row r="4">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>8965730.277777776</v>
+        <v>12849431.66666666</v>
       </c>
     </row>
     <row r="5">
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13874100.95404384</v>
+        <v>13841048.17626606</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>21207472.88458049</v>
+        <v>22980324.2734694</v>
       </c>
     </row>
     <row r="4">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9035386.767573692</v>
+        <v>6965060.378684806</v>
       </c>
     </row>
     <row r="5">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13874100.95404384</v>
+        <v>13841048.17626606</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27161500.66235826</v>
+        <v>22980324.2734694</v>
       </c>
     </row>
     <row r="4">
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3081358.98979592</v>
+        <v>6965060.378684805</v>
       </c>
     </row>
     <row r="5">
